--- a/excel/api_cases.xlsx
+++ b/excel/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="112">
   <si>
     <t>编号</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>参数类型</t>
+  </si>
+  <si>
+    <t>文件</t>
   </si>
   <si>
     <t>校验字段</t>
@@ -118,37 +121,43 @@
     <t>json</t>
   </si>
   <si>
+    <t>$..msg;$.data.username</t>
+  </si>
+  <si>
+    <t>eq;eq</t>
+  </si>
+  <si>
+    <t>登录成功;["zxc111"]</t>
+  </si>
+  <si>
+    <t>成功调用登陆接口，msg返回登录成功</t>
+  </si>
+  <si>
+    <t>VAR_TOKEN;VAR_UID</t>
+  </si>
+  <si>
+    <t>$..token;$..id</t>
+  </si>
+  <si>
+    <t>F01S01_登陆</t>
+  </si>
+  <si>
+    <t>F01_华测电商</t>
+  </si>
+  <si>
+    <t>正常用例登陆</t>
+  </si>
+  <si>
+    <t>blocker</t>
+  </si>
+  <si>
+    <t>{"accounts":"zz","pwd":"123456","type": "username"}</t>
+  </si>
+  <si>
     <t>$..msg</t>
   </si>
   <si>
-    <t>eq</t>
-  </si>
-  <si>
     <t>登录成功</t>
-  </si>
-  <si>
-    <t>成功调用登陆接口，msg返回登录成功</t>
-  </si>
-  <si>
-    <t>VAR_TOKEN;VAR_UID</t>
-  </si>
-  <si>
-    <t>$..token;$..id</t>
-  </si>
-  <si>
-    <t>F01S01_登陆</t>
-  </si>
-  <si>
-    <t>F01_华测电商</t>
-  </si>
-  <si>
-    <t>正常用例登陆</t>
-  </si>
-  <si>
-    <t>blocker</t>
-  </si>
-  <si>
-    <t>{"accounts":"zz","pwd":"123456","type": "username"}</t>
   </si>
   <si>
     <t>通过</t>
@@ -381,7 +390,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +431,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -868,10 +883,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -880,32 +895,29 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
@@ -917,98 +929,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1024,6 +1039,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1343,20 +1367,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="7.68518518518519" style="3" customWidth="1"/>
-    <col min="2" max="2" width="7.68518518518519" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
     <col min="3" max="3" width="42.7314814814815" customWidth="1"/>
     <col min="4" max="4" width="18.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="12.8981481481481" customWidth="1"/>
@@ -1364,23 +1388,24 @@
     <col min="7" max="7" width="16.2314814814815" customWidth="1"/>
     <col min="8" max="8" width="49.1388888888889" customWidth="1"/>
     <col min="9" max="9" width="12.5648148148148" customWidth="1"/>
-    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="11.5555555555556" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.3055555555556" customWidth="1"/>
-    <col min="13" max="13" width="31.787037037037" customWidth="1"/>
-    <col min="14" max="14" width="42.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="25.6388888888889" customWidth="1"/>
-    <col min="16" max="16" width="16.9166666666667" customWidth="1"/>
-    <col min="17" max="17" width="21.4537037037037" customWidth="1"/>
-    <col min="18" max="18" width="24.2685185185185" customWidth="1"/>
-    <col min="19" max="19" width="17.4444444444444" customWidth="1"/>
-    <col min="20" max="20" width="18.3703703703704" customWidth="1"/>
-    <col min="21" max="21" width="17.6666666666667" customWidth="1"/>
-    <col min="23" max="24" width="34.6111111111111" customWidth="1"/>
-    <col min="25" max="25" width="16.4074074074074" customWidth="1"/>
+    <col min="10" max="10" width="47.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="23" style="9" customWidth="1"/>
+    <col min="12" max="12" width="11.5555555555556" style="4" customWidth="1"/>
+    <col min="13" max="13" width="31.7037037037037" style="9" customWidth="1"/>
+    <col min="14" max="14" width="31.787037037037" customWidth="1"/>
+    <col min="15" max="15" width="42.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="25.6388888888889" customWidth="1"/>
+    <col min="17" max="17" width="16.9166666666667" customWidth="1"/>
+    <col min="18" max="18" width="21.4537037037037" customWidth="1"/>
+    <col min="19" max="19" width="24.2685185185185" customWidth="1"/>
+    <col min="20" max="20" width="17.4444444444444" customWidth="1"/>
+    <col min="21" max="21" width="18.3703703703704" customWidth="1"/>
+    <col min="22" max="22" width="17.6666666666667" customWidth="1"/>
+    <col min="24" max="25" width="34.6111111111111" customWidth="1"/>
+    <col min="26" max="26" width="16.4074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1411,13 +1436,13 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -1456,54 +1481,56 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1" spans="1:22">
+    <row r="2" ht="27.6" customHeight="1" spans="1:23">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2"/>
+      <c r="O2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
       </c>
       <c r="T2" t="s">
@@ -1514,6 +1541,9 @@
       </c>
       <c r="V2" t="s">
         <v>42</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1531,11 +1561,23 @@
   <sheetPr/>
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:X11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="32.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="48.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="25.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="18.3333333333333" customWidth="1"/>
+    <col min="22" max="22" width="62.2222222222222" customWidth="1"/>
+    <col min="23" max="23" width="40.4444444444444" customWidth="1"/>
+    <col min="24" max="24" width="11.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="3" t="s">
@@ -1566,49 +1608,49 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" ht="96.6" customHeight="1" spans="1:21">
@@ -1616,58 +1658,58 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
         <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" ht="96.6" customHeight="1" spans="1:21">
@@ -1675,52 +1717,52 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" ht="96.6" customHeight="1" spans="1:21">
@@ -1728,52 +1770,52 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="96.6" customHeight="1" spans="1:21">
@@ -1781,52 +1823,52 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
       <c r="R5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" ht="179.4" customHeight="1" spans="1:21">
@@ -1834,52 +1876,52 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
-      </c>
       <c r="R6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="151.8" customHeight="1" spans="1:21">
@@ -1888,46 +1930,46 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="151.8" customHeight="1" spans="1:24">
@@ -1936,55 +1978,55 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -1996,43 +2038,43 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2041,55 +2083,55 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="T10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="U10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2098,52 +2140,52 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" t="s">
+        <v>108</v>
+      </c>
+      <c r="S11" t="s">
         <v>98</v>
       </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="U11" t="s">
         <v>74</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" t="s">
-        <v>103</v>
-      </c>
-      <c r="O11" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" t="s">
-        <v>105</v>
-      </c>
-      <c r="S11" t="s">
-        <v>95</v>
-      </c>
-      <c r="U11" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2170,7 +2212,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -2181,15 +2223,15 @@
   <sheetData>
     <row r="1" ht="41.4" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/excel/api_cases.xlsx
+++ b/excel/api_cases.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9467" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="备注" sheetId="3" r:id="rId3"/>
+    <sheet name="接口测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="jdbc_request" sheetId="2" r:id="rId2"/>
+    <sheet name="数据集" sheetId="3" r:id="rId3"/>
+    <sheet name="原数据" sheetId="4" r:id="rId4"/>
+    <sheet name="备注" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="159">
   <si>
     <t>编号</t>
   </si>
@@ -24,6 +26,21 @@
     <t>id</t>
   </si>
   <si>
+    <t>feature(大模块)</t>
+  </si>
+  <si>
+    <t>story(小模块)</t>
+  </si>
+  <si>
+    <t>用例名</t>
+  </si>
+  <si>
+    <t>前置操作</t>
+  </si>
+  <si>
+    <t>后置操作</t>
+  </si>
+  <si>
     <t>地址</t>
   </si>
   <si>
@@ -60,9 +77,6 @@
     <t>检查结果</t>
   </si>
   <si>
-    <t>用例名</t>
-  </si>
-  <si>
     <t>JSON提取_引用名称</t>
   </si>
   <si>
@@ -75,70 +89,172 @@
     <t>正则表达式</t>
   </si>
   <si>
-    <t>story(小模块)</t>
-  </si>
-  <si>
-    <t>feature(大模块)</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
     <t>级别</t>
   </si>
   <si>
+    <t>数据库SQL引用</t>
+  </si>
+  <si>
+    <t>引用数据库变量</t>
+  </si>
+  <si>
+    <t>数据库预期</t>
+  </si>
+  <si>
+    <t>goods.fail.idnotexist</t>
+  </si>
+  <si>
+    <t>华测电商</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t>验证输入的商品ID不存在提示用户</t>
+  </si>
+  <si>
+    <t>http://shop-xo.hctestedu.com/index.php?s=</t>
+  </si>
+  <si>
+    <t>api/goods/detail</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>{"goods_id":"15"}</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>$..msg;$.code</t>
+  </si>
+  <si>
+    <t>eq;eq</t>
+  </si>
+  <si>
+    <t>"商品不存在或已删除";-1</t>
+  </si>
+  <si>
+    <t>blocker</t>
+  </si>
+  <si>
+    <t>login.f1</t>
+  </si>
+  <si>
+    <t>登录接口</t>
+  </si>
+  <si>
+    <t>验证输入错误的用户名提示用户</t>
+  </si>
+  <si>
+    <t>api/user/login&amp;application=app</t>
+  </si>
+  <si>
+    <t>{"accounts":"yulisa001wu","pwd":"123456","type":"username"}</t>
+  </si>
+  <si>
+    <t>"登录帐号不存在"; -3</t>
+  </si>
+  <si>
+    <t>cart.del.1</t>
+  </si>
+  <si>
+    <t>删除购物车</t>
+  </si>
+  <si>
+    <t>能删除当前用户对应的购物车数据（多个）</t>
+  </si>
+  <si>
+    <t>api/cart/delete&amp;application=app&amp;application_client_type=weixin&amp;token={{token}}</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/json"}</t>
+  </si>
+  <si>
+    <t>{"id":}</t>
+  </si>
+  <si>
+    <t>数据库语句</t>
+  </si>
+  <si>
+    <t>数据库引用变量</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>select title,simple_desc,min_price, max_price FROM sxo_goods WHERE id = 12;</t>
+  </si>
+  <si>
+    <t>title;simple_desc;min_price; max_price</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>select title,simple_desc,min_price, max_price FROM sxo_goods WHERE id = 10;</t>
+  </si>
+  <si>
+    <t>login.ok</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>用于登录得到token</t>
+  </si>
+  <si>
+    <t>api/user/login</t>
+  </si>
+  <si>
+    <t>{"accounts":"zxc","pwd":"123456","type": "username"}</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>token;uid</t>
+  </si>
+  <si>
+    <t>$..token;$..id</t>
+  </si>
+  <si>
     <t>数据库SQL</t>
   </si>
   <si>
     <t>数据库变量</t>
-  </si>
-  <si>
-    <t>数据库预期</t>
-  </si>
-  <si>
-    <t>login.ok</t>
-  </si>
-  <si>
-    <t>http://shop-xo.hctestedu.com/index.php?s=</t>
-  </si>
-  <si>
-    <t>api/user/login</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>{"application": "app",
 "application_client_type": "weixin"}</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>{"accounts":"zxc","pwd":"123456","type": "username"}</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>$..msg;$.data.username</t>
-  </si>
-  <si>
-    <t>eq;eq</t>
-  </si>
-  <si>
-    <t>登录成功;["zxc111"]</t>
-  </si>
-  <si>
-    <t>成功调用登陆接口，msg返回登录成功</t>
+    <t>{"accounts":"zz","pwd":"123456","type": "username"}</t>
+  </si>
+  <si>
+    <t>$..msg</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>成功调佣登陆接口，msg返回登录成功</t>
   </si>
   <si>
     <t>VAR_TOKEN;VAR_UID</t>
   </si>
   <si>
-    <t>$..token;$..id</t>
-  </si>
-  <si>
     <t>F01S01_登陆</t>
   </si>
   <si>
@@ -146,27 +262,6 @@
   </si>
   <si>
     <t>正常用例登陆</t>
-  </si>
-  <si>
-    <t>blocker</t>
-  </si>
-  <si>
-    <t>{"accounts":"zz","pwd":"123456","type": "username"}</t>
-  </si>
-  <si>
-    <t>$..msg</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>成功调佣登陆接口，msg返回登录成功</t>
-  </si>
-  <si>
-    <t>login.f1</t>
   </si>
   <si>
     <t>"application": "app",
@@ -261,9 +356,6 @@
   </si>
   <si>
     <t>get</t>
-  </si>
-  <si>
-    <t>data</t>
   </si>
   <si>
     <t>success</t>
@@ -369,6 +461,33 @@
     <t>F02S02_用户查询</t>
   </si>
   <si>
+    <t>fileload.test</t>
+  </si>
+  <si>
+    <t>http://httpbin.org/post</t>
+  </si>
+  <si>
+    <t>{"accounts":"zxc","pwd":"123456","type": "username", "testVal":"{{token}}", "test": "{{func:get_id('1', 1)}}"}</t>
+  </si>
+  <si>
+    <t>{"testpng":"test.png", "test2png":"a/test2.png"}</t>
+  </si>
+  <si>
+    <t>$.url</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>测试文件上传</t>
+  </si>
+  <si>
+    <t>文件上传</t>
+  </si>
+  <si>
     <t>1.以下几列，无值时一定要填None不然会报错</t>
   </si>
   <si>
@@ -378,6 +497,32 @@
   </si>
   <si>
     <t>2.参数类型必须有值，要么json要么data</t>
+  </si>
+  <si>
+    <t>{{变量}}  实现参数传递</t>
+  </si>
+  <si>
+    <t>{{func:}} 实现扩展功能</t>
+  </si>
+  <si>
+    <t>校验字段支持多个；校验字段、校验类型、预期结果个数需要对应</t>
+  </si>
+  <si>
+    <t>校验类型目前支持：eq, neq, str_in, dict_in</t>
+  </si>
+  <si>
+    <t>支持文件上传，在文件位置处输入字典{"testPng" :"testPng"}即可自动去找文件</t>
+  </si>
+  <si>
+    <t>引用数据库会执行；前置条件引用数据库也会执行</t>
+  </si>
+  <si>
+    <t>jdbc_request,存放SQL请求,表中的编号需要有序，数据库引用变量可以有多个，用；分割；数据库引用变量也可以多个，用‘;’分割</t>
+  </si>
+  <si>
+    <t>用例可以有前置和后置条件，可以执行http请求和SQL请求两种，前置条件中可以进行多项请求，用分号分割；数据集中的数据不会当做测试用例，用作进行前后置操作的数据使用。
+使用 request: 编号 的格式来进行http请求，使用  sql:编号 的格式来进行SQL请求；
+数据集中的编号需要有序排列，不能冲突</t>
   </si>
 </sst>
 </file>
@@ -390,7 +535,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +578,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -880,154 +1032,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1042,11 +1197,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1367,188 +1543,317 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="9" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="7.68518518518519" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="42.7314814814815" customWidth="1"/>
-    <col min="4" max="4" width="18.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="12.8981481481481" customWidth="1"/>
-    <col min="6" max="6" width="31.7037037037037" customWidth="1"/>
-    <col min="7" max="7" width="16.2314814814815" customWidth="1"/>
-    <col min="8" max="8" width="49.1388888888889" customWidth="1"/>
-    <col min="9" max="9" width="12.5648148148148" customWidth="1"/>
-    <col min="10" max="10" width="47.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="23" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.5555555555556" style="4" customWidth="1"/>
-    <col min="13" max="13" width="31.7037037037037" style="9" customWidth="1"/>
-    <col min="14" max="14" width="31.787037037037" customWidth="1"/>
-    <col min="15" max="15" width="42.4444444444444" customWidth="1"/>
-    <col min="16" max="16" width="25.6388888888889" customWidth="1"/>
-    <col min="17" max="17" width="16.9166666666667" customWidth="1"/>
-    <col min="18" max="18" width="21.4537037037037" customWidth="1"/>
-    <col min="19" max="19" width="24.2685185185185" customWidth="1"/>
-    <col min="20" max="20" width="17.4444444444444" customWidth="1"/>
-    <col min="21" max="21" width="18.3703703703704" customWidth="1"/>
-    <col min="22" max="22" width="17.6666666666667" customWidth="1"/>
-    <col min="24" max="25" width="34.6111111111111" customWidth="1"/>
-    <col min="26" max="26" width="16.4074074074074" customWidth="1"/>
+    <col min="1" max="1" width="5.66666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.44444444444444" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" customWidth="1"/>
+    <col min="6" max="6" width="10.2222222222222" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="13.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="9.66666666666667" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="9.66666666666667" customWidth="1"/>
+    <col min="15" max="15" width="5.66666666666667" customWidth="1"/>
+    <col min="16" max="16" width="13.5555555555556" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" style="5" customWidth="1"/>
+    <col min="18" max="18" width="24.2222222222222" style="10" customWidth="1"/>
+    <col min="19" max="19" width="9.66666666666667" customWidth="1"/>
+    <col min="20" max="20" width="21.2222222222222" customWidth="1"/>
+    <col min="21" max="21" width="12.6666666666667" customWidth="1"/>
+    <col min="22" max="22" width="23.7777777777778" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="14.1111111111111" customWidth="1"/>
+    <col min="25" max="25" width="7.77777777777778" customWidth="1"/>
+    <col min="26" max="26" width="15.7777777777778" customWidth="1"/>
+    <col min="27" max="27" width="35.6666666666667" customWidth="1"/>
+    <col min="28" max="28" width="129.777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1" spans="1:23">
-      <c r="A2" s="3">
+      <c r="AA1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="41.4" customHeight="1" spans="1:28">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N2"/>
-      <c r="O2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T2" t="s">
+      <c r="R2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" ht="55.2" spans="1:28">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="W2" t="s">
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="E3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" ht="82.8" spans="1:28">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H2" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H3" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H4" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1559,10 +1864,260 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.1111111111111" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.6666666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="73.2222222222222" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.4444444444444" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="8.77777777777778" customWidth="1"/>
+    <col min="8" max="8" width="43" customWidth="1"/>
+    <col min="9" max="9" width="16.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="20.4444444444444" customWidth="1"/>
+    <col min="13" max="13" width="51.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="4.77777777777778" customWidth="1"/>
+    <col min="16" max="16" width="38.4444444444444" customWidth="1"/>
+    <col min="17" max="17" width="17.4444444444444" customWidth="1"/>
+    <col min="18" max="18" width="20.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="11.6666666666667" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="15.7777777777778" customWidth="1"/>
+    <col min="23" max="23" width="13.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.6" spans="1:28">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="41.4" customHeight="1" spans="1:28">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="13"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X14"/>
+  <sheetViews>
+    <sheetView topLeftCell="O9" workbookViewId="0">
+      <selection activeCell="O14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -1574,618 +2129,677 @@
     <col min="8" max="8" width="48.5555555555556" customWidth="1"/>
     <col min="9" max="9" width="25.7777777777778" customWidth="1"/>
     <col min="11" max="11" width="18.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="27.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="15.6666666666667" customWidth="1"/>
+    <col min="20" max="20" width="29.5555555555556" customWidth="1"/>
     <col min="22" max="22" width="62.2222222222222" customWidth="1"/>
     <col min="23" max="23" width="40.4444444444444" customWidth="1"/>
     <col min="24" max="24" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="96.6" customHeight="1" spans="1:21">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="96.6" customHeight="1" spans="1:21">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" t="s">
+        <v>79</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="96.6" customHeight="1" spans="1:21">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" ht="96.6" customHeight="1" spans="1:21">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="179.4" customHeight="1" spans="1:21">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="151.8" customHeight="1" spans="1:21">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" t="s">
+        <v>79</v>
+      </c>
+      <c r="U7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" ht="151.8" customHeight="1" spans="1:24">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" ht="96.6" customHeight="1" spans="1:21">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" ht="96.6" customHeight="1" spans="1:21">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="96.6" customHeight="1" spans="1:21">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" ht="96.6" customHeight="1" spans="1:21">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" ht="179.4" customHeight="1" spans="1:21">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" t="s">
-        <v>41</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" ht="151.8" customHeight="1" spans="1:21">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
         <v>73</v>
       </c>
-      <c r="S7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" ht="151.8" customHeight="1" spans="1:24">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>47</v>
-      </c>
       <c r="M8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" t="s">
+        <v>111</v>
+      </c>
+      <c r="R8" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" t="s">
         <v>79</v>
       </c>
-      <c r="N8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R8" t="s">
-        <v>82</v>
-      </c>
-      <c r="S8" t="s">
-        <v>41</v>
-      </c>
       <c r="V8" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="W8" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="400.2" customHeight="1" spans="1:19">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="S9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" t="s">
+        <v>127</v>
+      </c>
+      <c r="S10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" t="s">
+        <v>129</v>
+      </c>
+      <c r="U10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" t="s">
-        <v>94</v>
-      </c>
-      <c r="N10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" t="s">
-        <v>97</v>
-      </c>
-      <c r="S10" t="s">
-        <v>98</v>
-      </c>
-      <c r="T10" t="s">
-        <v>99</v>
-      </c>
-      <c r="U10" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5" t="s">
-        <v>100</v>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s">
+        <v>135</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>137</v>
+      </c>
+      <c r="R11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S11" t="s">
+        <v>128</v>
+      </c>
+      <c r="U11" t="s">
         <v>105</v>
       </c>
-      <c r="N11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" t="s">
-        <v>107</v>
-      </c>
-      <c r="R11" t="s">
-        <v>108</v>
-      </c>
-      <c r="S11" t="s">
-        <v>98</v>
-      </c>
-      <c r="U11" t="s">
-        <v>74</v>
+    </row>
+    <row r="14" ht="14.4" customHeight="1" spans="1:23">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="T14" t="s">
+        <v>146</v>
+      </c>
+      <c r="U14" t="s">
+        <v>147</v>
+      </c>
+      <c r="V14" t="s">
+        <v>146</v>
+      </c>
+      <c r="W14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2199,39 +2813,81 @@
     <hyperlink ref="C8" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
     <hyperlink ref="C9" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
     <hyperlink ref="C10" r:id="rId2" display="http://39.98.138.157:5000/" tooltip="http://39.98.138.157:5000/"/>
-    <hyperlink ref="C11" r:id="rId3" display="http://39.98.138.157:5000"/>
+    <hyperlink ref="C11" r:id="rId2" display="http://39.98.138.157:5000"/>
+    <hyperlink ref="C14" r:id="rId3" display="http://httpbin.org/post"/>
+    <hyperlink ref="M14" r:id="rId3" display="http://httpbin.org/post" tooltip="http://httpbin.org/post"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="44.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="111.555555555556" customWidth="1"/>
     <col min="2" max="2" width="20.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="41.4" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" ht="58.95" customHeight="1" spans="1:1">
+      <c r="A10" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/excel/api_cases.xlsx
+++ b/excel/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9467" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="接口测试用例" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="数据集" sheetId="3" r:id="rId3"/>
     <sheet name="原数据" sheetId="4" r:id="rId4"/>
     <sheet name="备注" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="267">
   <si>
     <t>编号</t>
   </si>
@@ -104,82 +105,346 @@
     <t>数据库预期</t>
   </si>
   <si>
-    <t>goods.fail.idnotexist</t>
+    <t>login.s1</t>
   </si>
   <si>
     <t>华测电商</t>
   </si>
   <si>
-    <t>商品详情</t>
-  </si>
-  <si>
-    <t>验证输入的商品ID不存在提示用户</t>
+    <t>登录接口</t>
+  </si>
+  <si>
+    <t>正确登录</t>
   </si>
   <si>
     <t>http://shop-xo.hctestedu.com/index.php?s=</t>
   </si>
   <si>
+    <t>api/user/login&amp;application=app</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>{"accounts":"zxc","pwd":"123456","type":"username"}</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>$..msg;$.code</t>
+  </si>
+  <si>
+    <t>eq;eq</t>
+  </si>
+  <si>
+    <t>"登录成功";0</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>login.f1</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{"accounts":"zxc","pwd":"errorcode","type":"username"}</t>
+  </si>
+  <si>
+    <t>$..msg</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>"密码错误"</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>login.f2</t>
+  </si>
+  <si>
+    <t>验证输入错误的用户名提示用户</t>
+  </si>
+  <si>
+    <t>{"accounts":"zxcadasdfasdfasf","pwd":"123456","type":"username"}</t>
+  </si>
+  <si>
+    <t>"登录帐号不存在"; -3</t>
+  </si>
+  <si>
+    <t>blocker</t>
+  </si>
+  <si>
+    <t>账号为空</t>
+  </si>
+  <si>
+    <t>{"accounts":"","pwd":"123456","type":"username"}</t>
+  </si>
+  <si>
+    <t>"登录账号不能为空";-1</t>
+  </si>
+  <si>
+    <t>login.f3</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"accounts":"zxc","pwd":"","type":"username"}</t>
+  </si>
+  <si>
+    <t>"密码格式 6~18 个字符之间";-1</t>
+  </si>
+  <si>
+    <t>登录类型为空</t>
+  </si>
+  <si>
+    <t>{"accounts":"zxc","pwd":"123455","type":""}</t>
+  </si>
+  <si>
+    <t>"登录类型有误";-1</t>
+  </si>
+  <si>
+    <t>登录类型错误</t>
+  </si>
+  <si>
+    <t>{"accounts":"zxc","pwd":"123455","type":"errortype"}</t>
+  </si>
+  <si>
+    <t>goodsdetail.s1</t>
+  </si>
+  <si>
+    <t>商品详细</t>
+  </si>
+  <si>
+    <t>获取商品详细</t>
+  </si>
+  <si>
     <t>api/goods/detail</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>{"goods_id":"15"}</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>$..msg;$.code</t>
-  </si>
-  <si>
-    <t>eq;eq</t>
+    <t>{"goods_id":"1"}</t>
+  </si>
+  <si>
+    <t>$..msg;$.code;$..goods.title;$..goods.original_price;$..goods.price;$..goods.inventory</t>
+  </si>
+  <si>
+    <t>eq;eq;eq;eq;eq;eq</t>
+  </si>
+  <si>
+    <t>"success";0;"MIUI/小米 小米手机4 小米4代 MI4智能4G手机包邮 黑色 D-LTE（4G）/TD-SCD";"3200.00";"2100.00";"888717"</t>
+  </si>
+  <si>
+    <t>goodsdetail.f1</t>
+  </si>
+  <si>
+    <t>获取的商品不存在</t>
+  </si>
+  <si>
+    <t>{"goods_id":"12345"}</t>
   </si>
   <si>
     <t>"商品不存在或已删除";-1</t>
   </si>
   <si>
-    <t>blocker</t>
-  </si>
-  <si>
-    <t>login.f1</t>
-  </si>
-  <si>
-    <t>登录接口</t>
-  </si>
-  <si>
-    <t>验证输入错误的用户名提示用户</t>
-  </si>
-  <si>
-    <t>api/user/login&amp;application=app</t>
-  </si>
-  <si>
-    <t>{"accounts":"yulisa001wu","pwd":"123456","type":"username"}</t>
-  </si>
-  <si>
-    <t>"登录帐号不存在"; -3</t>
-  </si>
-  <si>
-    <t>cart.del.1</t>
+    <t>goodsdetail.f2</t>
+  </si>
+  <si>
+    <t>输入非数字商品id</t>
+  </si>
+  <si>
+    <t>{"goods_id":"aasdfs"}</t>
+  </si>
+  <si>
+    <t>goodsdetail.f3</t>
+  </si>
+  <si>
+    <t>没有商品id字段</t>
+  </si>
+  <si>
+    <t>"参数有误";-1</t>
+  </si>
+  <si>
+    <t>cartsave.s1</t>
+  </si>
+  <si>
+    <t>加入购物车</t>
+  </si>
+  <si>
+    <t>正常加入单个物件到购物车</t>
+  </si>
+  <si>
+    <t>request:1</t>
+  </si>
+  <si>
+    <t>api/cart/save&amp;token={{token}}</t>
+  </si>
+  <si>
+    <t>{"goods_id": "4","stock": 1}</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>"加入成功";0</t>
+  </si>
+  <si>
+    <t>cartsave.s2</t>
+  </si>
+  <si>
+    <t>正常加入单个物品多个数量到购物车</t>
+  </si>
+  <si>
+    <t>{"goods_id": "4","stock": 10}</t>
+  </si>
+  <si>
+    <t>cartsave.s3</t>
+  </si>
+  <si>
+    <t>选择相应套餐加入购物车</t>
+  </si>
+  <si>
+    <t>{"goods_id": "4","stock": 10,"spec":[{"type":"尺码","value":"L"}]}</t>
+  </si>
+  <si>
+    <t>预期结果与实际结果不一致</t>
+  </si>
+  <si>
+    <t>cartsave.f1</t>
+  </si>
+  <si>
+    <t>goods_id为空</t>
+  </si>
+  <si>
+    <t>{"goods_id": "","stock": 1}</t>
+  </si>
+  <si>
+    <t>"商品id有误";-1</t>
+  </si>
+  <si>
+    <t>cartsave.f2</t>
+  </si>
+  <si>
+    <t>没有该商品</t>
+  </si>
+  <si>
+    <t>{"goods_id": "errorid","stock": 1}</t>
+  </si>
+  <si>
+    <t>"商品不存在或已删除";-2</t>
+  </si>
+  <si>
+    <t>cartsave.f3</t>
+  </si>
+  <si>
+    <t>stock字段为空</t>
+  </si>
+  <si>
+    <t>{"goods_id": "1","stock": ""}</t>
+  </si>
+  <si>
+    <t>"购买数量有误";-1</t>
+  </si>
+  <si>
+    <t>cartsave.f4</t>
+  </si>
+  <si>
+    <t>stock字段不为数字</t>
+  </si>
+  <si>
+    <t>{"goods_id": "1","stock": "errornum"}</t>
+  </si>
+  <si>
+    <t>数量大于库存</t>
+  </si>
+  <si>
+    <t>{"goods_id": "1","stock": 1111111111111111111}</t>
+  </si>
+  <si>
+    <t>"库存不足";-1</t>
+  </si>
+  <si>
+    <t>cartsave.f5</t>
+  </si>
+  <si>
+    <t>没有token加入购物车</t>
+  </si>
+  <si>
+    <t>api/cart/save</t>
+  </si>
+  <si>
+    <t>{"goods_id": "1","stock": 1}</t>
+  </si>
+  <si>
+    <t>$.code</t>
+  </si>
+  <si>
+    <t>cartdel.s1</t>
   </si>
   <si>
     <t>删除购物车</t>
   </si>
   <si>
-    <t>能删除当前用户对应的购物车数据（多个）</t>
-  </si>
-  <si>
-    <t>api/cart/delete&amp;application=app&amp;application_client_type=weixin&amp;token={{token}}</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"id":}</t>
+    <t>删除单个</t>
+  </si>
+  <si>
+    <t>request:1;request:2;request:4</t>
+  </si>
+  <si>
+    <t>api/cart/delete</t>
+  </si>
+  <si>
+    <t>{"id":"{{cart_ids[0]}}"}</t>
+  </si>
+  <si>
+    <t>"删除成功";0</t>
+  </si>
+  <si>
+    <t>cartdel.s2</t>
+  </si>
+  <si>
+    <t>删除多个</t>
+  </si>
+  <si>
+    <t>request:2;request:3;request:4</t>
+  </si>
+  <si>
+    <t>{"id":"{{cart_ids[0]}},{{cart_ids[1]}}"}</t>
+  </si>
+  <si>
+    <t>cartdel.f1</t>
+  </si>
+  <si>
+    <t>id为空</t>
+  </si>
+  <si>
+    <t>request:2;</t>
+  </si>
+  <si>
+    <t>{"id":""}</t>
+  </si>
+  <si>
+    <t>"删除数据id有误";-1</t>
+  </si>
+  <si>
+    <t>cartdel.f2</t>
+  </si>
+  <si>
+    <t>物品id不存在</t>
+  </si>
+  <si>
+    <t>{"id":"errorid"}</t>
+  </si>
+  <si>
+    <t>"删除失败或资源不存在";-100</t>
   </si>
   <si>
     <t>数据库语句</t>
@@ -212,25 +477,64 @@
     <t>用于登录得到token</t>
   </si>
   <si>
+    <t>{"accounts":"zxc","pwd":"123456","type": "username"}</t>
+  </si>
+  <si>
+    <t>token;uid</t>
+  </si>
+  <si>
+    <t>$..token;$..id</t>
+  </si>
+  <si>
+    <t>goods.add4</t>
+  </si>
+  <si>
+    <t>加入一个商品4到购物车</t>
+  </si>
+  <si>
+    <t>/api/cart/save&amp;application=app&amp;application_client_type=weixin&amp;token={{token}}</t>
+  </si>
+  <si>
+    <t>{"goods_id": 4,"stock": 1,"spec": []}</t>
+  </si>
+  <si>
+    <t>goods.add11</t>
+  </si>
+  <si>
+    <t>加入一个商品11到购物车</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"goods_id": 11,"stock": 1,"spec": [{"type": "尺码", "value": "L"}]}</t>
+  </si>
+  <si>
+    <t>goods.getGoodsId</t>
+  </si>
+  <si>
+    <t>获取购物车中的id</t>
+  </si>
+  <si>
+    <t>http://shop-xo.hctestedu.com?s=</t>
+  </si>
+  <si>
+    <t>/index/cart/index.html</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>cart_ids</t>
+  </si>
+  <si>
+    <t>data-id="(.*)" data-goods-id</t>
+  </si>
+  <si>
+    <t>数据库SQL</t>
+  </si>
+  <si>
+    <t>数据库变量</t>
+  </si>
+  <si>
     <t>api/user/login</t>
-  </si>
-  <si>
-    <t>{"accounts":"zxc","pwd":"123456","type": "username"}</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>token;uid</t>
-  </si>
-  <si>
-    <t>$..token;$..id</t>
-  </si>
-  <si>
-    <t>数据库SQL</t>
-  </si>
-  <si>
-    <t>数据库变量</t>
   </si>
   <si>
     <t>{"application": "app",
@@ -240,13 +544,7 @@
     <t>{"accounts":"zz","pwd":"123456","type": "username"}</t>
   </si>
   <si>
-    <t>$..msg</t>
-  </si>
-  <si>
     <t>登录成功</t>
-  </si>
-  <si>
-    <t>通过</t>
   </si>
   <si>
     <t>成功调佣登陆接口，msg返回登录成功</t>
@@ -283,9 +581,6 @@
     <t>接口请求格式有误，公共参数少{</t>
   </si>
   <si>
-    <t>login.f2</t>
-  </si>
-  <si>
     <t>{"accounts":"zz333","pwd123":"123456","type": "username"}</t>
   </si>
   <si>
@@ -297,9 +592,6 @@
   <si>
     <t>请求参数中，出现
 错误的键：pwd123</t>
-  </si>
-  <si>
-    <t>login.f3</t>
   </si>
   <si>
     <t>$..msg123</t>
@@ -325,9 +617,6 @@
 表达式</t>
   </si>
   <si>
-    <t>api/cart/save</t>
-  </si>
-  <si>
     <t>{"application": "app",
 "application_client_type": "weixin",
 "token":  all_val['VAR_TOKEN']}</t>
@@ -343,9 +632,6 @@
     <t>加入成功</t>
   </si>
   <si>
-    <t>加入购物车</t>
-  </si>
-  <si>
     <t>F01S02_加入购物车</t>
   </si>
   <si>
@@ -353,9 +639,6 @@
   </si>
   <si>
     <t>api/cart/index</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>success</t>
@@ -476,9 +759,6 @@
     <t>$.url</t>
   </si>
   <si>
-    <t>eq</t>
-  </si>
-  <si>
     <t>上传文件</t>
   </si>
   <si>
@@ -499,10 +779,16 @@
     <t>2.参数类型必须有值，要么json要么data</t>
   </si>
   <si>
+    <t>接口测试用例：存放测试用例
+jdbc_request: 存放jdbc请求，接口测试用例需要引用的话，只需要写 sql: 对应编号，例如：sql:1 即可执行jdbc_request 中编号为1的jdbc请求，并存储变量
+数据集：存放前后置条件需要的http请求，这些请求不会变成用例，只会成为前后置操作，格式和 “接口测试用例”一致
+原数据、sheet1： 没用</t>
+  </si>
+  <si>
     <t>{{变量}}  实现参数传递</t>
   </si>
   <si>
-    <t>{{func:}} 实现扩展功能</t>
+    <t>{{func:}} 实现扩展功能，支持附加功能，功能需要自己写，写完后在文档中引用即可，举例{{func:get_token()}}、{{func:get_id(1, 2)}}</t>
   </si>
   <si>
     <t>校验字段支持多个；校验字段、校验类型、预期结果个数需要对应</t>
@@ -514,7 +800,7 @@
     <t>支持文件上传，在文件位置处输入字典{"testPng" :"testPng"}即可自动去找文件</t>
   </si>
   <si>
-    <t>引用数据库会执行；前置条件引用数据库也会执行</t>
+    <t>引用数据库会执行；前置/后置 条件引用数据库也会执行；</t>
   </si>
   <si>
     <t>jdbc_request,存放SQL请求,表中的编号需要有序，数据库引用变量可以有多个，用；分割；数据库引用变量也可以多个，用‘;’分割</t>
@@ -522,7 +808,50 @@
   <si>
     <t>用例可以有前置和后置条件，可以执行http请求和SQL请求两种，前置条件中可以进行多项请求，用分号分割；数据集中的数据不会当做测试用例，用作进行前后置操作的数据使用。
 使用 request: 编号 的格式来进行http请求，使用  sql:编号 的格式来进行SQL请求；
-数据集中的编号需要有序排列，不能冲突</t>
+数据集中的编号需要有序排列，不能冲突
+前置后置操作之后发起请求，存储变量，不会对请求进行校验，写了校验也没用</t>
+  </si>
+  <si>
+    <t>格式化日志，存储在 项目根目录/log下，一天一个日志</t>
+  </si>
+  <si>
+    <t>allure报告在 项目根目录/report目录下</t>
+  </si>
+  <si>
+    <t>编写好用例后，执行 项目根目录/main即可运行</t>
+  </si>
+  <si>
+    <t>goods.fail.idnotexist</t>
+  </si>
+  <si>
+    <t>商品详情</t>
+  </si>
+  <si>
+    <t>验证输入的商品ID不存在提示用户</t>
+  </si>
+  <si>
+    <t>{"goods_id":"15"}</t>
+  </si>
+  <si>
+    <t>cart.del.1</t>
+  </si>
+  <si>
+    <t>能删除当前用户对应的购物车数据（多个）</t>
+  </si>
+  <si>
+    <t>request:1;request:2;request:3;request:4</t>
+  </si>
+  <si>
+    <t>api/cart/delete&amp;application=app&amp;application_client_type=weixin&amp;token={{token}}</t>
+  </si>
+  <si>
+    <t>{"id":'{{cart_ids[0]}},{{cart_ids[1]}}'}</t>
+  </si>
+  <si>
+    <t>$.msg</t>
+  </si>
+  <si>
+    <t>"删除成功"</t>
   </si>
 </sst>
 </file>
@@ -535,13 +864,27 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -560,14 +903,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -576,19 +911,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1032,155 +1354,170 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1190,40 +1527,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1543,37 +1866,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="R21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.66666666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.44444444444444" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.66666666666667" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.44444444444444" style="10" customWidth="1"/>
     <col min="3" max="3" width="15.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="9.77777777777778" customWidth="1"/>
-    <col min="6" max="6" width="10.2222222222222" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="9.77777777777778" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.55555555555556" style="10" customWidth="1"/>
+    <col min="8" max="8" width="25.6944444444444" customWidth="1"/>
     <col min="9" max="9" width="13.5555555555556" customWidth="1"/>
-    <col min="10" max="10" width="9.66666666666667" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.66666666666667" style="10" customWidth="1"/>
     <col min="11" max="11" width="17.3333333333333" customWidth="1"/>
     <col min="12" max="12" width="18.1111111111111" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="9.66666666666667" customWidth="1"/>
     <col min="15" max="15" width="5.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="13.5555555555556" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.66666666666667" style="5" customWidth="1"/>
-    <col min="18" max="18" width="24.2222222222222" style="10" customWidth="1"/>
-    <col min="19" max="19" width="9.66666666666667" customWidth="1"/>
+    <col min="16" max="16" width="13.5555555555556" style="15" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" style="10" customWidth="1"/>
+    <col min="18" max="18" width="24.2222222222222" style="15" customWidth="1"/>
+    <col min="19" max="19" width="21.0555555555556" customWidth="1"/>
     <col min="20" max="20" width="21.2222222222222" customWidth="1"/>
     <col min="21" max="21" width="12.6666666666667" customWidth="1"/>
     <col min="22" max="22" width="23.7777777777778" customWidth="1"/>
@@ -1581,279 +1904,1710 @@
     <col min="24" max="24" width="14.1111111111111" customWidth="1"/>
     <col min="25" max="25" width="7.77777777777778" customWidth="1"/>
     <col min="26" max="26" width="15.7777777777778" customWidth="1"/>
-    <col min="27" max="27" width="35.6666666666667" customWidth="1"/>
-    <col min="28" max="28" width="129.777777777778" customWidth="1"/>
+    <col min="27" max="27" width="14.7777777777778" customWidth="1"/>
+    <col min="28" max="28" width="10.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" ht="41.4" customHeight="1" spans="1:28">
-      <c r="A2" s="12">
+    <row r="2" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="S2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-    </row>
-    <row r="3" ht="55.2" spans="1:28">
-      <c r="A3" s="12">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="17" t="s">
+      <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="18" t="s">
+      <c r="K4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="R21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12" t="s">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-    </row>
-    <row r="4" ht="82.8" spans="1:28">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="R22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="Y22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="17" t="s">
+      <c r="D23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="18" t="s">
+      <c r="I23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="18" t="s">
+      <c r="K23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" ht="55.2" customHeight="1" spans="1:28">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
     <hyperlink ref="H3" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
     <hyperlink ref="H4" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H5" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H6" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H7" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H8" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H9" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H10" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H11" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H12" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H13" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H14" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H15" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H16" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H17" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H18" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H19" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H20" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H21" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H22" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H23" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H24" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H25" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1867,57 +3621,57 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.1111111111111" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.6666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="73.2222222222222" style="5" customWidth="1"/>
-    <col min="4" max="4" width="35.4444444444444" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.1111111111111" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.6666666666667" style="10" customWidth="1"/>
+    <col min="3" max="3" width="73.2222222222222" style="10" customWidth="1"/>
+    <col min="4" max="4" width="35.4444444444444" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>55</v>
+      <c r="C1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>58</v>
+      <c r="B2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
+      <c r="B3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1929,182 +3683,352 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="5" max="5" width="19.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="8.77777777777778" customWidth="1"/>
+    <col min="5" max="5" width="23.1111111111111" customWidth="1"/>
+    <col min="6" max="7" width="8.77777777777778" customWidth="1"/>
     <col min="8" max="8" width="43" customWidth="1"/>
-    <col min="9" max="9" width="16.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="78.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="20.4444444444444" customWidth="1"/>
     <col min="13" max="13" width="51.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="18.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="18.6666666666667" style="9" customWidth="1"/>
     <col min="15" max="15" width="4.77777777777778" customWidth="1"/>
     <col min="16" max="16" width="38.4444444444444" customWidth="1"/>
     <col min="17" max="17" width="17.4444444444444" customWidth="1"/>
     <col min="18" max="18" width="20.7777777777778" customWidth="1"/>
     <col min="20" max="20" width="11.6666666666667" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="15.7777777777778" customWidth="1"/>
+    <col min="22" max="22" width="28.4444444444444" customWidth="1"/>
     <col min="23" max="23" width="13.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.6" spans="1:28">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="27.6" customHeight="1" spans="1:28">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="41.4" customHeight="1" spans="1:28">
-      <c r="A2" s="5">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="B2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+    </row>
+    <row r="4" ht="27.6" customHeight="1" spans="1:28">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H3" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H4" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H5" r:id="rId2" display="http://shop-xo.hctestedu.com?s="/>
+    <hyperlink ref="I5" r:id="rId3" display="/index/cart/index.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2116,8 +4040,8 @@
   <sheetPr/>
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView topLeftCell="O9" workbookViewId="0">
-      <selection activeCell="O14" sqref="$A14:$XFD14"/>
+    <sheetView topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -2138,10 +4062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2202,449 +4126,449 @@
         <v>24</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="X1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="96.6" customHeight="1" spans="1:21">
-      <c r="A2" s="4">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>74</v>
+        <v>45</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="N2" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="R2" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="S2" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="96.6" customHeight="1" spans="1:21">
-      <c r="A3" s="4">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="S3" t="s">
-        <v>79</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>86</v>
+        <v>178</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="96.6" customHeight="1" spans="1:21">
-      <c r="A4" s="4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>91</v>
+        <v>178</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" ht="96.6" customHeight="1" spans="1:21">
-      <c r="A5" s="4">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>83</v>
+        <v>190</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="S5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>95</v>
+        <v>178</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="U5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="179.4" customHeight="1" spans="1:21">
-      <c r="A6" s="4">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>83</v>
+        <v>190</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>182</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="R6" t="s">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="S6" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>98</v>
+        <v>178</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="U6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" ht="151.8" customHeight="1" spans="1:21">
-      <c r="A7" s="4">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>101</v>
+      <c r="F7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="R7" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="S7" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="U7" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" ht="151.8" customHeight="1" spans="1:24">
-      <c r="A8" s="4">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="O8" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="R8" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="S8" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="V8" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="W8" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="400.2" customHeight="1" spans="1:19">
-      <c r="A9" s="4">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>116</v>
+      <c r="F9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="R9" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="S9" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="4">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
-        <v>120</v>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -2653,153 +4577,153 @@
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>219</v>
       </c>
       <c r="O10" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="R10" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="S10" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="T10" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="4">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>130</v>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="N11" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="O11" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="R11" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="S11" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="U11" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" ht="14.4" customHeight="1" spans="1:23">
-      <c r="A14" s="4">
+      <c r="A14" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>140</v>
+      <c r="B14" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>235</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>140</v>
+        <v>90</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="N14" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>145</v>
+        <v>41</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="T14" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="U14" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="V14" t="s">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="W14" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2825,10 +4749,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="1"/>
@@ -2838,60 +4762,231 @@
   </cols>
   <sheetData>
     <row r="1" ht="41.4" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>149</v>
+      <c r="A1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>151</v>
+      <c r="A2" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" ht="69" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" ht="58.95" customHeight="1" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" ht="69" spans="1:1">
+      <c r="A11" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" ht="41.4" customHeight="1" spans="1:28">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" ht="82.8" customHeight="1" spans="1:28">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+    <hyperlink ref="H2" r:id="rId1" display="http://shop-xo.hctestedu.com/index.php?s=" tooltip="http://shop-xo.hctestedu.com/index.php?s="/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>